--- a/Excel2Proto/excel/SkillEffectCfg.xlsx
+++ b/Excel2Proto/excel/SkillEffectCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\Dongcidaci\Excel2Proto\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D95DD3C-4F5C-4908-B91F-E31EF6413475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73802045-523F-4F71-852C-BE64FC97BBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkEftBaseCfg" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -96,6 +96,86 @@
   </si>
   <si>
     <t>特效路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标攻击时造成伤害，会叠加人物的基础攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果造成的直接伤害，不受人物基础攻击影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复人物相应的生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复人物相应的能量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往面朝的方向冲刺一段距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往面朝的方向闪现一段距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +194,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,6 +209,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,11 +238,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,155 +553,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
-      <c r="A1" s="2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>2</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>3</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1102</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Proto/excel/SkillEffectCfg.xlsx
+++ b/Excel2Proto/excel/SkillEffectCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73802045-523F-4F71-852C-BE64FC97BBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716133F-B77C-4FE1-B931-F7CEE141249B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -176,6 +176,22 @@
   </si>
   <si>
     <t>往面朝的方向闪现一段距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指定的位置加载子弹，并让子弹发射一段距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,11 +569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -797,6 +813,38 @@
         <v>39</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1203</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel2Proto/excel/SkillEffectCfg.xlsx
+++ b/Excel2Proto/excel/SkillEffectCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716133F-B77C-4FE1-B931-F7CEE141249B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F3351-6D2B-4316-9C9A-BFF549F13107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -192,6 +192,14 @@
   </si>
   <si>
     <t>在指定的位置加载子弹，并让子弹发射一段距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DashEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlinkEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +581,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -790,7 +798,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>36</v>
@@ -807,7 +815,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>

--- a/Excel2Proto/excel/SkillEffectCfg.xlsx
+++ b/Excel2Proto/excel/SkillEffectCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F3351-6D2B-4316-9C9A-BFF549F13107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E06884-72D0-4382-9A87-17623D35EE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
